--- a/Data/Regression/news_index_dire_senti_lex_PMI.xlsx
+++ b/Data/Regression/news_index_dire_senti_lex_PMI.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0009299346873325919</v>
+        <v>0.001970816161726106</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004379260730720213</v>
+        <v>0.01267849872068314</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0007807833608051307</v>
+        <v>0.01248661729412995</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004043572531749398</v>
+        <v>0.003595287796969653</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000191333765232445</v>
+        <v>-0.004586952113332065</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0008931060576244555</v>
+        <v>0.002062401031364204</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001142135415218006</v>
+        <v>0.005535362783300399</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003553549921773683</v>
+        <v>0.009130328934892186</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001561333226185657</v>
+        <v>0.002653979045028643</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0004731671133786816</v>
+        <v>0.0003627486309939715</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002366308827649751</v>
+        <v>0.003588346408300575</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0009806100083983424</v>
+        <v>0.001046772229547759</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.002330126753227433</v>
+        <v>-0.003897719300558803</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001174236585554551</v>
+        <v>0.005964680492183064</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003444118270061922</v>
+        <v>0.009260218041273499</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001879479750819477</v>
+        <v>0.004952086535619267</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.380976675410276e-05</v>
+        <v>0.002497540617215664</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0001879809884814009</v>
+        <v>0.004991220666048462</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001074755256230973</v>
+        <v>-0.00118846777760145</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0002167727142316176</v>
+        <v>1.943912091179607e-06</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.001615768666688757</v>
+        <v>-0.004436196045910278</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.002023236062535422</v>
+        <v>0.003918116450785766</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0005286789319564018</v>
+        <v>0.009498250809882553</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001326319772892277</v>
+        <v>0.01337414121061909</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0001631328601580339</v>
+        <v>0.007056988561797159</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.003143422107456346</v>
+        <v>0.0134490885289074</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.001322608478176766</v>
+        <v>0.006694941536310957</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.00084596455452476</v>
+        <v>0.002112315294608804</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0003220437129963793</v>
+        <v>-0.0007277695053856405</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0009306542137085146</v>
+        <v>-0.0005745331182309323</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-3.124624444616758e-05</v>
+        <v>-0.00199607348745431</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.0002757040511479532</v>
+        <v>0.005944742197728003</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0001039197058990727</v>
+        <v>-0.002779846134391033</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002376117892350993</v>
+        <v>-0.002146595422509229</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.001908616093437126</v>
+        <v>0.005214857576215914</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.002335456806447623</v>
+        <v>0.01455634917448926</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0003649140156783925</v>
+        <v>0.002259866136974003</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.0002583807512156129</v>
+        <v>-0.000906776962010765</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-4.940665883623258e-05</v>
+        <v>0.005521979499196722</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.001346547751507119</v>
+        <v>0.0004166992719200632</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0001958116890862108</v>
+        <v>-0.004534694172526268</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.0004529865384459731</v>
+        <v>-0.00101781451776502</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.002419011839700137</v>
+        <v>0.01116778583065027</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.0005942249220722659</v>
+        <v>0.001559696405617254</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.134604312465967e-05</v>
+        <v>-0.002113880158245948</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.001358132395587234</v>
+        <v>-0.004657928362446673</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.002013365556043229</v>
+        <v>0.001975003785876019</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.001259666529276551</v>
+        <v>-0.008209055543923755</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.001242969652959639</v>
+        <v>-9.269102701392693e-05</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.001794057388921831</v>
+        <v>0.0008899344889703573</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0006919223414549732</v>
+        <v>-0.001638291504561321</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.000356823419671146</v>
+        <v>-0.003797364408105467</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.001877961493333887</v>
+        <v>-0.0002502553015479597</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.003763540793998199</v>
+        <v>-0.001101970301127161</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0004213851889273648</v>
+        <v>0.0006390581639736773</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.001108739784007261</v>
+        <v>-0.007201039601073001</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.001186907111950259</v>
+        <v>0.01151588016600788</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.006664181285425705</v>
+        <v>0.010353136178073</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.002643764152992402</v>
+        <v>-0.001855077163006039</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.004405116630948419</v>
+        <v>-0.01507358044522413</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.0009483343671361378</v>
+        <v>-0.00634118221398604</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.001113469121180511</v>
+        <v>-0.02408113190326325</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0007472653591478682</v>
+        <v>0.002758709159557301</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-3.1705872502274e-05</v>
+        <v>-0.004244374746972687</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.007763176505168597</v>
+        <v>-0.01198688700906268</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.001705931278880755</v>
+        <v>0.004556590742886373</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.004456905583222439</v>
+        <v>0.0138935520341376</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-7.498047255078941e-05</v>
+        <v>-0.01048704512660688</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0001356884402523589</v>
+        <v>0.005089842293458638</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.0008890128892671529</v>
+        <v>-0.01189977442753234</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.001574245731897134</v>
+        <v>0.0118617722832568</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.0001539668126292433</v>
+        <v>0.004523759811907334</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0003298418226108429</v>
+        <v>0.007205446481056155</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.001508219132126322</v>
+        <v>0.0009689267328105738</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0003189145909869318</v>
+        <v>-0.003460957932320016</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.005588541199431093</v>
+        <v>-0.004934462094079608</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.005489126216874154</v>
+        <v>0.01172517773043174</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-4.952075229574597e-05</v>
+        <v>1.03827294121578e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.001963767596004423</v>
+        <v>0.01053346852645561</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001218104385789784</v>
+        <v>-0.0002685926375411888</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.004380360285543345</v>
+        <v>0.00145091482487716</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.002936173386292519</v>
+        <v>0.00104344471291841</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.0005361613974598949</v>
+        <v>0.008437074972607895</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.006067761937317545</v>
+        <v>-0.003972416497980036</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.00162792314219264</v>
+        <v>-0.001193886391982657</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.005239219112965245</v>
+        <v>-0.006703203812945042</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0009219379793917937</v>
+        <v>0.003687434207608949</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.002807741235350751</v>
+        <v>0.00553516278932515</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.005780436357418093</v>
+        <v>0.0004559459763472896</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-4.139511828199096e-05</v>
+        <v>0.001391096071450614</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.001554814305349088</v>
+        <v>-9.133919970999019e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.00106644211897846</v>
+        <v>0.0007122858202222286</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.00221396965840137</v>
+        <v>0.003098174915358594</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.001981037688663886</v>
+        <v>-0.002674276953838305</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.001328968860752381</v>
+        <v>0.004992200844626155</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.005753995805810021</v>
+        <v>-0.009237944228142198</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.001015875218823469</v>
+        <v>-0.003954354936418625</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.0008252972097694619</v>
+        <v>-0.0009296571812027717</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.001638832266734155</v>
+        <v>-0.002061248242561312</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.007479546069505473</v>
+        <v>0.006558668831851041</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.001643648537606996</v>
+        <v>0.007396491577701917</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.001430460420941028</v>
+        <v>0.002414977641770954</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.0001754206641643692</v>
+        <v>0.004631070521264006</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.001421420295656148</v>
+        <v>0.0133415145077529</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.002915714311328166</v>
+        <v>0.01426140931845485</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.001014982341599525</v>
+        <v>0.007253798103167093</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.002075718074966525</v>
+        <v>-0.005405791802669179</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.001304186726054101</v>
+        <v>0.02038868962365608</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0005755821774316677</v>
+        <v>0.001381957467834647</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.001453578136496035</v>
+        <v>0.005174214585561612</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.001513022064553494</v>
+        <v>0.005465074367838393</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.0005784232689372086</v>
+        <v>-0.004344555980436103</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.001296205082925287</v>
+        <v>0.0005789738392312203</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.000303454170713697</v>
+        <v>-0.005199252500426349</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.0005254294859115971</v>
+        <v>-0.002707919253335132</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.003264380546973027</v>
+        <v>0.004644996302153441</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.001692655423009836</v>
+        <v>0.002379035671657237</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.002489383961806515</v>
+        <v>0.004825262926968238</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.001908102541629897</v>
+        <v>0.005139820577077796</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.0002692566069993471</v>
+        <v>0.005378354824386951</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.003570294410014562</v>
+        <v>-0.002625800259209148</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.001655023210249132</v>
+        <v>0.01046490434412823</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.0007587026817939539</v>
+        <v>0.000118472018589215</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.001216424417817459</v>
+        <v>0.003745424048485293</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.0009749226500182218</v>
+        <v>-0.004321758850681909</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0002637995000085751</v>
+        <v>0.001814158708311416</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.0007406705997066967</v>
+        <v>-0.001198422618290559</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.002838441713343888</v>
+        <v>-0.002603680278833803</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0002493710230939515</v>
+        <v>-0.001550911870333474</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.004081206419531624</v>
+        <v>-0.004879124980252833</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.01053018788818274</v>
+        <v>-0.002970145888839448</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.0003284227233711049</v>
+        <v>0.004407779516716317</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.006891899687263902</v>
+        <v>0.007313133994686742</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.000904345016577401</v>
+        <v>0.003696011151918004</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.001513521865962388</v>
+        <v>0.005058991327457549</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.003389536398028668</v>
+        <v>-0.00611293569242978</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.0006289307674562103</v>
+        <v>-0.00157214705976994</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.003712946007005406</v>
+        <v>-0.0020600859535416</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.0006521126003921401</v>
+        <v>-0.0007355831824054504</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.002187225569222624</v>
+        <v>-0.003223394076225946</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.002097968066759037</v>
+        <v>-0.0001224998667437635</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.001579806708089356</v>
+        <v>0.0008442685312452401</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.002082889975454329</v>
+        <v>0.002638284310846631</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.001086065039452611</v>
+        <v>-0.0007916401443763774</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.001676306728662245</v>
+        <v>0.001009417259796946</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.001028578653247177</v>
+        <v>0.007302895071252835</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-9.176374649399487e-05</v>
+        <v>-6.06872135109477e-05</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.001924814591657664</v>
+        <v>-0.009246522437234624</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.002045694852516897</v>
+        <v>-0.002492506897036609</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.004948929744644739</v>
+        <v>-0.004122024233651446</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.0008373854193500132</v>
+        <v>-0.0008257514386129293</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.005761597548539262</v>
+        <v>0.007180688458131152</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.002757749277457648</v>
+        <v>-4.390795351916175e-05</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.00252896811689512</v>
+        <v>0.001193091329061064</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.003116655695596028</v>
+        <v>0.001743525447395645</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.005518998334724328</v>
+        <v>0.002335192428026054</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.001285431590933584</v>
+        <v>0.008476462900554963</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.003579600397069127</v>
+        <v>0.005589335510339308</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.0002772943230490781</v>
+        <v>0.002447888607497787</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.0007266382462582017</v>
+        <v>-4.335635324197789e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.005583476110536167</v>
+        <v>0.01140656869262603</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.001112102370201533</v>
+        <v>0.001953780513496916</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.001060011681162263</v>
+        <v>0.003408182861827774</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.004032751425903483</v>
+        <v>0.00597523328565096</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.005849731682776882</v>
+        <v>0.006282906721897095</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.002973279225840611</v>
+        <v>0.01059770303668607</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.003911455803461785</v>
+        <v>0.002155835798989724</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.006914185996766267</v>
+        <v>0.009295635969832468</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.005328075208186136</v>
+        <v>0.009409225969867487</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.001985832581483238</v>
+        <v>0.005648240029577223</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.002724450920805139</v>
+        <v>0.002924320456626808</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.001826681390654141</v>
+        <v>0.007326505214887633</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.002213169504955797</v>
+        <v>0.004404427993948594</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.0009809350620995599</v>
+        <v>0.004130345487938948</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.001205656955220138</v>
+        <v>-0.001974444595819599</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.003095392831106988</v>
+        <v>0.008439577135509017</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.00373836139498008</v>
+        <v>0.007447417159226631</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.004058545814644192</v>
+        <v>0.00692208961098333</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.00278715465737839</v>
+        <v>-0.003611418819578333</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.002057952282955448</v>
+        <v>0.002037631029628255</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.003365288844621925</v>
+        <v>0.005933213052081471</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.004035715825822766</v>
+        <v>0.00822099052440103</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.0002317656929481534</v>
+        <v>0.0005357380184411484</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.002674440904730098</v>
+        <v>0.003227938776371074</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.003737581173463635</v>
+        <v>0.006632259483788514</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0005222433603150646</v>
+        <v>0.003522100147991445</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.0009975803298370822</v>
+        <v>0.006835536830248508</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.005378084872458109</v>
+        <v>0.005561226898718371</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.001390285055792269</v>
+        <v>0.004059533439956191</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.0009479828450175605</v>
+        <v>0.003544111901898152</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.001263766812562751</v>
+        <v>4.785815612616135e-05</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.00109908912680902</v>
+        <v>0.002886148564265402</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.002720596083344219</v>
+        <v>0.0008209273185632313</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.001775654833204113</v>
+        <v>0.001830435420392741</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.0007030662074076302</v>
+        <v>-0.0008093607387608705</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1.676314192619777e-05</v>
+        <v>-0.00101853362722583</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.002092069259119134</v>
+        <v>-0.0009312160480706915</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.0004731358878506846</v>
+        <v>-0.0004953429505040741</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.002425166978209574</v>
+        <v>0.00131678567579405</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.005351340463606183</v>
+        <v>0.005941706603325975</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.005182636877771084</v>
+        <v>0.00708209321755077</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.003942782638300541</v>
+        <v>0.006451545500648313</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.004182313838227851</v>
+        <v>0.006283489776215197</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.002740279541207179</v>
+        <v>0.001419041652641746</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.002199571526676152</v>
+        <v>0.001654576257198475</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.003557971778794181</v>
+        <v>0.003192563994848119</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.003231134033198719</v>
+        <v>0.003056487120661868</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.002314737871328972</v>
+        <v>0.003446514755138264</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.002848601215228366</v>
+        <v>0.003708364667581824</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.003380379719951817</v>
+        <v>0.001944524414215667</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.003853503536341633</v>
+        <v>0.001744693643977093</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.002256619817671211</v>
+        <v>-0.003691864045063714</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0007223592651191767</v>
+        <v>-0.00332569918399541</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-0.000823482101375733</v>
+        <v>-0.003051920616677415</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.005060020699583568</v>
+        <v>-0.008023692962118169</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.003161047420014052</v>
+        <v>-0.0005517007559592448</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.00286372738699256</v>
+        <v>-0.002768946779985318</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.001941981907563298</v>
+        <v>-0.003484701253351018</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.003221032168344933</v>
+        <v>0.002759969806886094</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.002525189235627489</v>
+        <v>0.0001460697843220646</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.001230939316002193</v>
+        <v>0.001978388908285017</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-0.005693835608952153</v>
+        <v>-0.0003249705503337091</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.0005147232285677838</v>
+        <v>-0.002162572162750088</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.002426786914615293</v>
+        <v>-0.001193031167391839</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.002116741834934731</v>
+        <v>-0.0003538641599385022</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-0.001693474779556131</v>
+        <v>-0.002202805559485692</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-0.002228113787909136</v>
+        <v>0.005502616461285313</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.0008340581303270117</v>
+        <v>-0.001593418459583252</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.0001287782132305159</v>
+        <v>0.001551263446171772</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-0.0007260692364132223</v>
+        <v>0.006972115803966906</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.0008080481051742525</v>
+        <v>0.001786732972647391</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.003879701586103056</v>
+        <v>0.002294528370684287</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.0002619523391218983</v>
+        <v>0.0005627653082295477</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.0001414684434565888</v>
+        <v>0.0009021325490433176</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.0009767000403201533</v>
+        <v>0.005810751360407204</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-0.0001572282281145531</v>
+        <v>0.0008386863391786947</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.0008372080043506291</v>
+        <v>-0.0001790695374013498</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-0.0007087578915435035</v>
+        <v>0.001475374695473528</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.001564036539894235</v>
+        <v>0.007120611507380682</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.005347584064317282</v>
+        <v>0.008714847110005494</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.002224259931790633</v>
+        <v>0.003798312692740828</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.001328348343892017</v>
+        <v>0.001167449752996021</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.001606049210871359</v>
+        <v>-3.78088908132262e-05</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.004056999449628526</v>
+        <v>0.003357774732394942</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.002513629638882187</v>
+        <v>0.002139608893844578</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.00113594063452029</v>
+        <v>0.003443676044285592</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.005821701883184657</v>
+        <v>0.003779690775770407</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.002980413353707937</v>
+        <v>-0.001301826179434003</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-0.0009987300987745887</v>
+        <v>-0.0008802590183850137</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.002767901194535222</v>
+        <v>-0.001901816870001079</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.00161723146173384</v>
+        <v>0.0002455052841357397</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-0.0004720569827485511</v>
+        <v>-0.000734595746704527</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-0.001079662441992926</v>
+        <v>0.0006524172271013995</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.001650833058095627</v>
+        <v>0.008760245519257536</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.001139160653502554</v>
+        <v>0.001872762361911883</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.003488204032231531</v>
+        <v>0.001036265004255083</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-0.0003378306991885204</v>
+        <v>-4.604833517442985e-05</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.003166016884048953</v>
+        <v>-0.007089458106501401</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.003909590222389053</v>
+        <v>-0.005053087949759108</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.001652966102927988</v>
+        <v>0.002217286096787091</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.0004648037406036184</v>
+        <v>-0.0003510971533127964</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.0008137543931379932</v>
+        <v>0.0009151818627765939</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.0002301376359782556</v>
+        <v>0.002240675467494125</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-0.004989485621371745</v>
+        <v>-0.002144480273657742</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-0.003396517273847161</v>
+        <v>-0.00158736802982414</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-0.00399166497579939</v>
+        <v>-0.003821864623248726</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-0.001233857036163414</v>
+        <v>-0.006863964951068687</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-0.001029964902344717</v>
+        <v>-0.002021185509542247</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-0.006078648007452466</v>
+        <v>-0.00840444236936543</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-0.002887112331393622</v>
+        <v>-6.359655556412345e-05</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.000724557812738016</v>
+        <v>-0.0007639136161632971</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.00177013215728053</v>
+        <v>-0.002028472273535296</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.006433996494371813</v>
+        <v>-0.00743044979722104</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.01181769850720069</v>
+        <v>-0.0081012267832755</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.008319289365280568</v>
+        <v>-0.009045465238364832</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.009202800548364046</v>
+        <v>-0.01071263728886131</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.005766427899131571</v>
+        <v>-0.009570841344125405</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-0.006559501343362327</v>
+        <v>-0.01004320041967467</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-0.009399189953736679</v>
+        <v>-0.01176763461340732</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.006011269108502366</v>
+        <v>-0.007546849934811861</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-0.009002561306173466</v>
+        <v>-0.01444868371616884</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-0.004563182483332782</v>
+        <v>-0.01005670678629206</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.00737925591658153</v>
+        <v>-0.01341374811857156</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.01715427145894332</v>
+        <v>-0.01222480579918253</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.006041269450492231</v>
+        <v>-0.01370311652762624</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-0.01108864444485554</v>
+        <v>-0.0181810579134447</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.01142354400699833</v>
+        <v>-0.01852446185146925</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.009646923205708325</v>
+        <v>-0.008373253728388489</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.006319948382076958</v>
+        <v>-0.008768834036418061</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.008589311797613517</v>
+        <v>-0.007244837268819145</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.003646590280816789</v>
+        <v>-0.004958421419094015</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.005671489279074978</v>
+        <v>-0.003676106420782129</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.006752136897413675</v>
+        <v>-0.009590295135821039</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.01089953272668755</v>
+        <v>-0.009389434321631253</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.01745880753628357</v>
+        <v>-0.0180083993090971</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.007084888473394561</v>
+        <v>-0.005127069357346613</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-0.0119827084149313</v>
+        <v>-0.01411708257103337</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-0.007515601910805895</v>
+        <v>-0.01074637341518467</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-0.007426937647357975</v>
+        <v>-0.01504529303565611</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-0.007666308675924724</v>
+        <v>-0.01148582525553678</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-0.01167642286500706</v>
+        <v>-0.01674796300647205</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.007766875112106152</v>
+        <v>-0.009483002861248962</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.004075460977672963</v>
+        <v>-0.008939664936777938</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.005526287740958015</v>
+        <v>-0.00893279455248264</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.004805219908426632</v>
+        <v>-0.009853203662491447</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.004788972589913703</v>
+        <v>-0.007255147226282847</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.004851748223190623</v>
+        <v>-0.002207954925720606</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.007241167943126038</v>
+        <v>-0.01064636775912889</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-0.004655104702808058</v>
+        <v>0.01622740174464944</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-0.002182986703104833</v>
+        <v>-0.006292073856145154</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-0.0001971224449695227</v>
+        <v>0.001174752977748786</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.005068809585023221</v>
+        <v>-0.002229129560295351</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.000446043913956591</v>
+        <v>0.0001842275027251872</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-0.0009251934328905966</v>
+        <v>0.003168398981837684</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.002784189214148494</v>
+        <v>-0.003194366625512346</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-0.002086505666178065</v>
+        <v>-0.004650941497602685</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-0.005063783706489883</v>
+        <v>-0.002145364641546401</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.003796143436477624</v>
+        <v>-0.002353909907787046</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-0.003167138913412361</v>
+        <v>-0.004835656928251986</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-0.008707162214359708</v>
+        <v>-0.01180424237392543</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.004302006959620341</v>
+        <v>-0.003204147588073989</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.003891993114912862</v>
+        <v>-0.00775320404390945</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-0.001599409081822052</v>
+        <v>0.01484372286256086</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-0.003852270885152131</v>
+        <v>0.01255068864254565</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.006943529802288358</v>
+        <v>-0.01173929228810916</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-0.002761915944085157</v>
+        <v>-0.004822847326782299</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-0.003227730684402882</v>
+        <v>-0.005387257284668664</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-0.003975543777477246</v>
+        <v>-0.006231909743488941</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-0.001563148801486507</v>
+        <v>-0.001062598972233968</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.000285426068176568</v>
+        <v>0.001769083969668063</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.001850045653727885</v>
+        <v>0.0006997832942078653</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.001557877046575962</v>
+        <v>0.003126798304066907</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.002148062036671683</v>
+        <v>0.0005840882660510144</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.0004266027457613788</v>
+        <v>-0.002401534006548839</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.0007911828244155134</v>
+        <v>-0.001032939349787644</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.002694784054183239</v>
+        <v>-0.003247715243078906</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_dire_senti_lex_PMI.xlsx
+++ b/Data/Regression/news_index_dire_senti_lex_PMI.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001970816161726106</v>
+        <v>0.001501431619764423</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01267849872068314</v>
+        <v>0.001620396289685774</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01248661729412995</v>
+        <v>0.0005684394814853073</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003595287796969653</v>
+        <v>0.004509959304092273</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.004586952113332065</v>
+        <v>0.000880645387921623</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002062401031364204</v>
+        <v>0.001144497529826978</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005535362783300399</v>
+        <v>0.0007336686326390751</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009130328934892186</v>
+        <v>0.00438308442596273</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002653979045028643</v>
+        <v>0.001362272604815325</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0003627486309939715</v>
+        <v>0.0005342490850486577</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003588346408300575</v>
+        <v>0.002559310280664427</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001046772229547759</v>
+        <v>0.001630947109001085</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.003897719300558803</v>
+        <v>0.001863935491761603</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005964680492183064</v>
+        <v>0.001649311002232693</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.009260218041273499</v>
+        <v>0.002699088661603405</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004952086535619267</v>
+        <v>0.002223705620412505</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002497540617215664</v>
+        <v>0.0002475442186542203</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004991220666048462</v>
+        <v>-0.0001673554256487978</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00118846777760145</v>
+        <v>-0.0008132830866793254</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.943912091179607e-06</v>
+        <v>-0.0003794175421893196</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.004436196045910278</v>
+        <v>-0.0009632916241932574</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.003918116450785766</v>
+        <v>0.001912960267359255</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.009498250809882553</v>
+        <v>-0.000288204799504077</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01337414121061909</v>
+        <v>0.001389004641115572</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007056988561797159</v>
+        <v>0.003057132860157133</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0134490885289074</v>
+        <v>0.001730330105058582</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.006694941536310957</v>
+        <v>0.001388987675703509</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.002112315294608804</v>
+        <v>0.0001733374200589759</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0007277695053856405</v>
+        <v>0.001140848000818143</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0005745331182309323</v>
+        <v>0.002405527503387747</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.00199607348745431</v>
+        <v>0.001016927663143412</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.005944742197728003</v>
+        <v>0.0009806150785382636</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.002779846134391033</v>
+        <v>0.002554123310136572</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.002146595422509229</v>
+        <v>0.0004529325489627159</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.005214857576215914</v>
+        <v>-0.0008377654736198264</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01455634917448926</v>
+        <v>-0.0001469930534134618</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.002259866136974003</v>
+        <v>-0.0003525440682250222</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.000906776962010765</v>
+        <v>0.001143752617316095</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.005521979499196722</v>
+        <v>0.0007121916832365493</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0004166992719200632</v>
+        <v>-0.0005467344714967939</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.004534694172526268</v>
+        <v>0.002039926782573052</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.00101781451776502</v>
+        <v>0.0004225216998445465</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01116778583065027</v>
+        <v>0.0005109908538818114</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001559696405617254</v>
+        <v>0.001546547868925482</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.002113880158245948</v>
+        <v>0.001410759507180266</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.004657928362446673</v>
+        <v>-0.0002033131800365629</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001975003785876019</v>
+        <v>0.002130970892334159</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.008209055543923755</v>
+        <v>0.001932307797298014</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-9.269102701392693e-05</v>
+        <v>0.001355860635946047</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0008899344889703573</v>
+        <v>0.001113353363969807</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.001638291504561321</v>
+        <v>0.0002810519169172247</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.003797364408105467</v>
+        <v>-0.0009417751382956043</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.0002502553015479597</v>
+        <v>0.0002606346646143948</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.001101970301127161</v>
+        <v>0.0002344175071886965</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0006390581639736773</v>
+        <v>-6.672372047628389e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.007201039601073001</v>
+        <v>-0.0006268396373566533</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01151588016600788</v>
+        <v>0.0001853379905388605</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.010353136178073</v>
+        <v>-0.001342388536301817</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.001855077163006039</v>
+        <v>-0.001472961572801441</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.01507358044522413</v>
+        <v>0.0004506955304595938</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.00634118221398604</v>
+        <v>-0.00145414298306375</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.02408113190326325</v>
+        <v>0.0006604996857616388</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.002758709159557301</v>
+        <v>-0.001657602637893171</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.004244374746972687</v>
+        <v>0.0005771428584504111</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.01198688700906268</v>
+        <v>-0.003076143482349397</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.004556590742886373</v>
+        <v>0.0006804831373805886</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0138935520341376</v>
+        <v>-1.152762572785561e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.01048704512660688</v>
+        <v>0.0003850653421965281</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.005089842293458638</v>
+        <v>0.0001389030804456369</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.01189977442753234</v>
+        <v>0.001427247741297015</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0118617722832568</v>
+        <v>0.0003039917852455028</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.004523759811907334</v>
+        <v>-0.001929832155313927</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.007205446481056155</v>
+        <v>0.001436250748484421</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0009689267328105738</v>
+        <v>0.0007408000710729743</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.003460957932320016</v>
+        <v>-0.002589504463915897</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.004934462094079608</v>
+        <v>-0.001557956191178403</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01172517773043174</v>
+        <v>0.001171232856721004</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.03827294121578e-05</v>
+        <v>0.002037553659995843</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01053346852645561</v>
+        <v>0.0009897596931850879</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.0002685926375411888</v>
+        <v>0.001186959084951641</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.00145091482487716</v>
+        <v>0.0004207746058406103</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.00104344471291841</v>
+        <v>-0.0002180181522439978</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.008437074972607895</v>
+        <v>0.0004144923214455745</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.003972416497980036</v>
+        <v>-0.001339017978638472</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.001193886391982657</v>
+        <v>-0.002158791416543441</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.006703203812945042</v>
+        <v>0.001298729692313495</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.003687434207608949</v>
+        <v>0.001164346116918197</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.00553516278932515</v>
+        <v>-0.0005214071970503739</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0004559459763472896</v>
+        <v>0.0006416522732343603</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001391096071450614</v>
+        <v>0.0009707830937829803</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-9.133919970999019e-05</v>
+        <v>-0.0008909238697416302</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0007122858202222286</v>
+        <v>0.0006340415048097947</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.003098174915358594</v>
+        <v>-0.001028475069741838</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.002674276953838305</v>
+        <v>-9.378042631954791e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.004992200844626155</v>
+        <v>-0.0003855769054383598</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.009237944228142198</v>
+        <v>-0.001878306253184793</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.003954354936418625</v>
+        <v>0.0002222018347235247</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.0009296571812027717</v>
+        <v>-0.003044796040021489</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.002061248242561312</v>
+        <v>0.0006748764387149202</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.006558668831851041</v>
+        <v>0.003651302774262568</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.007396491577701917</v>
+        <v>0.0001104641157078147</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.002414977641770954</v>
+        <v>0.0009951781916820535</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.004631070521264006</v>
+        <v>-0.001182222294395471</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0133415145077529</v>
+        <v>-3.711463090186237e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.01426140931845485</v>
+        <v>0.001148902192516759</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.007253798103167093</v>
+        <v>0.0003895563124178129</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.005405791802669179</v>
+        <v>-0.001528380541641526</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.02038868962365608</v>
+        <v>0.002546301878147643</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.001381957467834647</v>
+        <v>0.0004222591394827816</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.005174214585561612</v>
+        <v>0.0004440673892939453</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.005465074367838393</v>
+        <v>0.002158478530106014</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.004344555980436103</v>
+        <v>-0.0009551306440894613</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0005789738392312203</v>
+        <v>0.0008115699629398846</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.005199252500426349</v>
+        <v>0.00261284358334302</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.002707919253335132</v>
+        <v>-0.002201106765270854</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.004644996302153441</v>
+        <v>0.00230782302329406</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.002379035671657237</v>
+        <v>0.00389047762708266</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.004825262926968238</v>
+        <v>0.00238548087496593</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.005139820577077796</v>
+        <v>-0.001085290854277852</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.005378354824386951</v>
+        <v>0.001567747124430131</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.002625800259209148</v>
+        <v>0.00483306333978581</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.01046490434412823</v>
+        <v>-0.0006385070004652772</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.000118472018589215</v>
+        <v>0.0004239686340641569</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.003745424048485293</v>
+        <v>0.00499864663432607</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.004321758850681909</v>
+        <v>0.002889422767024646</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.001814158708311416</v>
+        <v>0.002279338574134698</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.001198422618290559</v>
+        <v>0.00200632063198325</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.002603680278833803</v>
+        <v>0.001591590697736159</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.001550911870333474</v>
+        <v>0.00189352809557524</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.004879124980252833</v>
+        <v>-0.003572291352196216</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.002970145888839448</v>
+        <v>-0.0008549613922872104</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.004407779516716317</v>
+        <v>0.0009860168413359659</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.007313133994686742</v>
+        <v>0.006014560501271962</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.003696011151918004</v>
+        <v>0.001726421297029682</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.005058991327457549</v>
+        <v>0.002592644947674092</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.00611293569242978</v>
+        <v>-0.0005314289071407847</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.00157214705976994</v>
+        <v>0.00185437729436031</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.0020600859535416</v>
+        <v>0.001185764299236213</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.0007355831824054504</v>
+        <v>0.005880600518570872</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.003223394076225946</v>
+        <v>0.000249068021833723</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.0001224998667437635</v>
+        <v>0.0003854961391813077</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.0008442685312452401</v>
+        <v>0.0001836109248405493</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.002638284310846631</v>
+        <v>-0.0007454326808411801</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.0007916401443763774</v>
+        <v>0.0005116786032682093</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.001009417259796946</v>
+        <v>0.000636567733954585</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.007302895071252835</v>
+        <v>0.005452334889538095</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-6.06872135109477e-05</v>
+        <v>0.001341927824401821</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.009246522437234624</v>
+        <v>0.000956135448931027</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.002492506897036609</v>
+        <v>-0.0003556779604752576</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.004122024233651446</v>
+        <v>-0.001346286406577824</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.0008257514386129293</v>
+        <v>-0.000580160408086993</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.007180688458131152</v>
+        <v>0.0004426491913866209</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-4.390795351916175e-05</v>
+        <v>0.001499027544821314</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.001193091329061064</v>
+        <v>-0.0002365165511369731</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.001743525447395645</v>
+        <v>0.000351946938051863</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.002335192428026054</v>
+        <v>-0.001904913872183035</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.008476462900554963</v>
+        <v>0.001981882639075263</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.005589335510339308</v>
+        <v>-0.0005076851711018508</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.002447888607497787</v>
+        <v>-0.001390098563416698</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-4.335635324197789e-05</v>
+        <v>0.0009622673120723991</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.01140656869262603</v>
+        <v>0.002306886828446707</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.001953780513496916</v>
+        <v>0.001090781608439524</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.003408182861827774</v>
+        <v>0.002514998668524292</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.00597523328565096</v>
+        <v>0.0005514387478629597</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.006282906721897095</v>
+        <v>0.005090229535753154</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.01059770303668607</v>
+        <v>0.002359788580903227</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.002155835798989724</v>
+        <v>0.002260185403841974</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.009295635969832468</v>
+        <v>0.007121779661616726</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.009409225969867487</v>
+        <v>0.005941388814916985</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.005648240029577223</v>
+        <v>0.0034377031721011</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.002924320456626808</v>
+        <v>-0.0003264540856535816</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.007326505214887633</v>
+        <v>0.004462017811360752</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.004404427993948594</v>
+        <v>0.0009691595702120173</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.004130345487938948</v>
+        <v>-0.000740156180571114</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.001974444595819599</v>
+        <v>0.002241669743869757</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.008439577135509017</v>
+        <v>0.002902104304447083</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.007447417159226631</v>
+        <v>0.004816495641870116</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.00692208961098333</v>
+        <v>0.002761909693531772</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.003611418819578333</v>
+        <v>0.002581572633727518</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.002037631029628255</v>
+        <v>0.002150946224424072</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.005933213052081471</v>
+        <v>0.002281998255005893</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.00822099052440103</v>
+        <v>0.003158113306390499</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.0005357380184411484</v>
+        <v>0.002559169670378343</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.003227938776371074</v>
+        <v>0.002726434242662663</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.006632259483788514</v>
+        <v>0.00554114482471837</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.003522100147991445</v>
+        <v>0.0009039910558080946</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.006835536830248508</v>
+        <v>0.001518880253841426</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.005561226898718371</v>
+        <v>0.004097184454109173</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.004059533439956191</v>
+        <v>-0.0002338364252149228</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.003544111901898152</v>
+        <v>0.003519812396227185</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4.785815612616135e-05</v>
+        <v>0.001642549207689024</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.002886148564265402</v>
+        <v>0.003563476284882884</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.0008209273185632313</v>
+        <v>0.002151822943946362</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.001830435420392741</v>
+        <v>0.001631628241018436</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-0.0008093607387608705</v>
+        <v>0.001610839541498434</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.00101853362722583</v>
+        <v>0.004040026082389137</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-0.0009312160480706915</v>
+        <v>0.004083154208913797</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.0004953429505040741</v>
+        <v>0.005632450501474739</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.00131678567579405</v>
+        <v>0.002629854774774375</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.005941706603325975</v>
+        <v>0.005296985199404426</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.00708209321755077</v>
+        <v>0.003986726857921319</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.006451545500648313</v>
+        <v>0.007978250131532694</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.006283489776215197</v>
+        <v>0.005419016019585029</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.001419041652641746</v>
+        <v>0.004563288219291951</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.001654576257198475</v>
+        <v>0.004144502520833076</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.003192563994848119</v>
+        <v>0.003484833218524737</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.003056487120661868</v>
+        <v>0.003501268216364179</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.003446514755138264</v>
+        <v>0.003486661904745084</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.003708364667581824</v>
+        <v>0.00258740821924034</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.001944524414215667</v>
+        <v>0.005068942766562421</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.001744693643977093</v>
+        <v>0.004960913691048702</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-0.003691864045063714</v>
+        <v>0.004602133174293649</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.00332569918399541</v>
+        <v>0.003727663302474583</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-0.003051920616677415</v>
+        <v>0.002583074038507971</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.008023692962118169</v>
+        <v>-0.001212782926923346</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.0005517007559592448</v>
+        <v>-0.001266989717611863</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.002768946779985318</v>
+        <v>-0.001980010171576231</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.003484701253351018</v>
+        <v>0.00356178275402486</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.002759969806886094</v>
+        <v>-0.0007906855385368008</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.0001460697843220646</v>
+        <v>-0.0001548184924514185</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.001978388908285017</v>
+        <v>0.0004932449068173226</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-0.0003249705503337091</v>
+        <v>0.0006061867852341604</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.002162572162750088</v>
+        <v>0.000520884415703141</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.001193031167391839</v>
+        <v>0.001142168943614539</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.0003538641599385022</v>
+        <v>-0.0007213488796742926</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-0.002202805559485692</v>
+        <v>0.001188962811772641</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.005502616461285313</v>
+        <v>0.001577341838160466</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.001593418459583252</v>
+        <v>-0.00095392525144742</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.001551263446171772</v>
+        <v>0.001024179938727001</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.006972115803966906</v>
+        <v>0.001203472838074619</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.001786732972647391</v>
+        <v>0.001054082408671926</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.002294528370684287</v>
+        <v>0.0006359419772456359</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.0005627653082295477</v>
+        <v>-0.0001551541520119971</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.0009021325490433176</v>
+        <v>0.0007450301245281185</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.005810751360407204</v>
+        <v>-8.039174594465434e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.0008386863391786947</v>
+        <v>-0.0002232183993196163</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-0.0001790695374013498</v>
+        <v>-0.0004172198863968706</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.001475374695473528</v>
+        <v>0.000217465897484357</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.007120611507380682</v>
+        <v>0.0009062925411058887</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.008714847110005494</v>
+        <v>0.002744570097988174</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.003798312692740828</v>
+        <v>0.004251542056160252</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.001167449752996021</v>
+        <v>0.003236152097750195</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-3.78088908132262e-05</v>
+        <v>0.00293712385178828</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.003357774732394942</v>
+        <v>0.004428106833032795</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.002139608893844578</v>
+        <v>0.001359977741437072</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.003443676044285592</v>
+        <v>0.0004234235898232941</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.003779690775770407</v>
+        <v>0.002405019913835227</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-0.001301826179434003</v>
+        <v>0.002769106873246313</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-0.0008802590183850137</v>
+        <v>-1.690420858436398e-05</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-0.001901816870001079</v>
+        <v>0.0008636660365697919</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.0002455052841357397</v>
+        <v>0.0009035576101441919</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-0.000734595746704527</v>
+        <v>0.0005479550189445908</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.0006524172271013995</v>
+        <v>0.001142190531394515</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.008760245519257536</v>
+        <v>0.002290224330033603</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.001872762361911883</v>
+        <v>0.002403559837453275</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.001036265004255083</v>
+        <v>0.003079789441040604</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-4.604833517442985e-05</v>
+        <v>0.0007113244626840881</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.007089458106501401</v>
+        <v>-0.0003900334807927044</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.005053087949759108</v>
+        <v>-0.00178215236639742</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.002217286096787091</v>
+        <v>0.00175731017652694</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-0.0003510971533127964</v>
+        <v>0.0005748306808526322</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.0009151818627765939</v>
+        <v>-0.0003395246543485262</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.002240675467494125</v>
+        <v>0.0003836757393109871</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-0.002144480273657742</v>
+        <v>0.000240108468014957</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-0.00158736802982414</v>
+        <v>-0.0007172945615906971</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-0.003821864623248726</v>
+        <v>2.325371200676224e-05</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-0.006863964951068687</v>
+        <v>0.002604639173485222</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-0.002021185509542247</v>
+        <v>-0.0008766170722328164</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-0.00840444236936543</v>
+        <v>-0.002311574884943416</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-6.359655556412345e-05</v>
+        <v>0.0003290171085950548</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-0.0007639136161632971</v>
+        <v>0.002236781060713176</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.002028472273535296</v>
+        <v>-0.0004815823726451062</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.00743044979722104</v>
+        <v>-0.00304857801358654</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.0081012267832755</v>
+        <v>-0.006269836652851049</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.009045465238364832</v>
+        <v>-0.006771226325084381</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.01071263728886131</v>
+        <v>-0.004653605037998221</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.009570841344125405</v>
+        <v>-0.006825825419293573</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-0.01004320041967467</v>
+        <v>-0.00522222841288811</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-0.01176763461340732</v>
+        <v>-0.00986551003881724</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.007546849934811861</v>
+        <v>-0.004793737556293344</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-0.01444868371616884</v>
+        <v>-0.004667962159063913</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-0.01005670678629206</v>
+        <v>-0.009966037344272221</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.01341374811857156</v>
+        <v>-0.005208154102573487</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.01222480579918253</v>
+        <v>-0.007812286361734285</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.01370311652762624</v>
+        <v>-0.01201400375415693</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-0.0181810579134447</v>
+        <v>-0.003965627388567546</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.01852446185146925</v>
+        <v>-0.01239812906698001</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.008373253728388489</v>
+        <v>-0.00911804369798469</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.008768834036418061</v>
+        <v>-0.007552395729165335</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.007244837268819145</v>
+        <v>-0.004302647928861466</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.004958421419094015</v>
+        <v>-0.004063240121911704</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.003676106420782129</v>
+        <v>-0.001188993205851437</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.009590295135821039</v>
+        <v>-0.0005401705577907321</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.009389434321631253</v>
+        <v>-0.003743712892766613</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.0180083993090971</v>
+        <v>-0.002866817138234721</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.005127069357346613</v>
+        <v>-0.002621524500754536</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-0.01411708257103337</v>
+        <v>-0.004360059182072426</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-0.01074637341518467</v>
+        <v>-0.002846645594544138</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-0.01504529303565611</v>
+        <v>-0.003559042772019422</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-0.01148582525553678</v>
+        <v>-0.004273030416412736</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-0.01674796300647205</v>
+        <v>-0.006271569590041521</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.009483002861248962</v>
+        <v>-0.003482679634901182</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.008939664936777938</v>
+        <v>-0.003876821046050674</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.00893279455248264</v>
+        <v>-0.003578821712070246</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.009853203662491447</v>
+        <v>-0.004106912730252674</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.007255147226282847</v>
+        <v>-0.001128191225216981</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.002207954925720606</v>
+        <v>-0.001792039207685158</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.01064636775912889</v>
+        <v>-0.0003600707714625859</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.01622740174464944</v>
+        <v>-0.001469747227058528</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-0.006292073856145154</v>
+        <v>0.002242358134536005</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.001174752977748786</v>
+        <v>0.001356150379773186</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.002229129560295351</v>
+        <v>-0.0008407567225271867</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.0001842275027251872</v>
+        <v>-0.0005378600839003157</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.003168398981837684</v>
+        <v>0.002693841839544751</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.003194366625512346</v>
+        <v>-0.0003252549348480315</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-0.004650941497602685</v>
+        <v>0.0001869918148992308</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-0.002145364641546401</v>
+        <v>-0.0001874005528245376</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.002353909907787046</v>
+        <v>-0.001730783007082083</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-0.004835656928251986</v>
+        <v>0.0009430566375401156</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-0.01180424237392543</v>
+        <v>0.0005130746044155407</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.003204147588073989</v>
+        <v>-0.002255396806826793</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.00775320404390945</v>
+        <v>-0.001894993633215035</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.01484372286256086</v>
+        <v>8.34304147636637e-05</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.01255068864254565</v>
+        <v>0.003334318813780829</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.01173929228810916</v>
+        <v>-0.0008324462333678726</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-0.004822847326782299</v>
+        <v>-0.0003280240237727966</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-0.005387257284668664</v>
+        <v>0.003410715353910542</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-0.006231909743488941</v>
+        <v>0.001232410279315908</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-0.001062598972233968</v>
+        <v>0.00252104385636598</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.001769083969668063</v>
+        <v>0.003460617871598066</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.0006997832942078653</v>
+        <v>0.002935395699087763</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.003126798304066907</v>
+        <v>0.002634208056719277</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.0005840882660510144</v>
+        <v>0.005259890255348185</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-0.002401534006548839</v>
+        <v>0.001584244234320671</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-0.001032939349787644</v>
+        <v>0.00417295713412201</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.003247715243078906</v>
+        <v>-0.00185727171361067</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_dire_senti_lex_PMI.xlsx
+++ b/Data/Regression/news_index_dire_senti_lex_PMI.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001501431619764423</v>
+        <v>0.01622285932983803</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001620396289685774</v>
+        <v>0.01435695183234575</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005684394814853073</v>
+        <v>0.01350356667518306</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004509959304092273</v>
+        <v>0.02036463257634807</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000880645387921623</v>
+        <v>0.009629331668163101</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001144497529826978</v>
+        <v>0.0144083444232235</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007336686326390751</v>
+        <v>0.01552227785945801</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00438308442596273</v>
+        <v>0.02134704113146453</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001362272604815325</v>
+        <v>0.01275148351509555</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005342490850486577</v>
+        <v>0.01366543095835611</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002559310280664427</v>
+        <v>0.0144621968542497</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001630947109001085</v>
+        <v>0.012323761133193</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001863935491761603</v>
+        <v>0.01646155732563543</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001649311002232693</v>
+        <v>0.01010722598009796</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002699088661603405</v>
+        <v>0.01906340585667259</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002223705620412505</v>
+        <v>0.01212373524837883</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0002475442186542203</v>
+        <v>0.008386652233909114</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0001673554256487978</v>
+        <v>0.009179670187329627</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0008132830866793254</v>
+        <v>0.007036105640349072</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0003794175421893196</v>
+        <v>0.009398985248946105</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0009632916241932574</v>
+        <v>0.007574083329020505</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.001912960267359255</v>
+        <v>0.01560514733322195</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.000288204799504077</v>
+        <v>0.007819561186732226</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001389004641115572</v>
+        <v>0.01169061236053306</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003057132860157133</v>
+        <v>0.01706048069740016</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001730330105058582</v>
+        <v>0.01417716199440711</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.001388987675703509</v>
+        <v>0.01294288558774598</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0001733374200589759</v>
+        <v>0.006875775629554262</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001140848000818143</v>
+        <v>0.01152647459893251</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002405527503387747</v>
+        <v>0.01489820184152099</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001016927663143412</v>
+        <v>0.01235881846640473</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0009806150785382636</v>
+        <v>0.0103296484881874</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.002554123310136572</v>
+        <v>0.01070197830402253</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0004529325489627159</v>
+        <v>0.01371611743332969</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.0008377654736198264</v>
+        <v>0.009043185037612568</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.0001469930534134618</v>
+        <v>0.00799261025788804</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.0003525440682250222</v>
+        <v>0.01242279830485681</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.001143752617316095</v>
+        <v>0.01174489691151384</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0007121916832365493</v>
+        <v>0.01194404005464234</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.0005467344714967939</v>
+        <v>0.008904305389510946</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002039926782573052</v>
+        <v>0.01118184180061203</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0004225216998445465</v>
+        <v>0.009050882095169122</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0005109908538818114</v>
+        <v>0.009189279487767888</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001546547868925482</v>
+        <v>0.01421858330599972</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001410759507180266</v>
+        <v>0.01285281950572508</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.0002033131800365629</v>
+        <v>0.01103601631272593</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.002130970892334159</v>
+        <v>0.01578579109293287</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001932307797298014</v>
+        <v>0.01751358260922966</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.001355860635946047</v>
+        <v>0.01400962292492248</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.001113353363969807</v>
+        <v>0.01224533342197966</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0002810519169172247</v>
+        <v>0.01262573726391239</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.0009417751382956043</v>
+        <v>0.009610057127094201</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0002606346646143948</v>
+        <v>0.01010004877133874</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0002344175071886965</v>
+        <v>0.01418692168280513</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-6.672372047628389e-05</v>
+        <v>0.01010543961599753</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.0006268396373566533</v>
+        <v>0.01468680843351951</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0001853379905388605</v>
+        <v>0.0115782287399765</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.001342388536301817</v>
+        <v>0.01253225511790493</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.001472961572801441</v>
+        <v>0.007930550607068536</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0004506955304595938</v>
+        <v>0.008389226306878756</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.00145414298306375</v>
+        <v>0.01103399186296663</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0006604996857616388</v>
+        <v>0.01246987675718512</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.001657602637893171</v>
+        <v>0.009851753193770017</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0005771428584504111</v>
+        <v>0.00877104790555374</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.003076143482349397</v>
+        <v>0.005751410928551089</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0006804831373805886</v>
+        <v>0.01025096563169042</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1.152762572785561e-05</v>
+        <v>0.009611972266266046</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0003850653421965281</v>
+        <v>0.01267808504252701</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0001389030804456369</v>
+        <v>0.006973688701114623</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.001427247741297015</v>
+        <v>0.009676376808443405</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0003039917852455028</v>
+        <v>0.00936584286514488</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.001929832155313927</v>
+        <v>0.006727223400047775</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.001436250748484421</v>
+        <v>0.01006541708270304</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0007408000710729743</v>
+        <v>0.01317600672541879</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.002589504463915897</v>
+        <v>0.008951582121655588</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.001557956191178403</v>
+        <v>0.008249201338737409</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.001171232856721004</v>
+        <v>0.008657926498414639</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.002037553659995843</v>
+        <v>0.0119801453828214</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0009897596931850879</v>
+        <v>0.01142177289159754</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001186959084951641</v>
+        <v>0.01160300208069523</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0004207746058406103</v>
+        <v>0.005868734676268679</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.0002180181522439978</v>
+        <v>0.008797969913644768</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0004144923214455745</v>
+        <v>0.008270502623263143</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.001339017978638472</v>
+        <v>0.01335366296644729</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.002158791416543441</v>
+        <v>0.00493801484479863</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.001298729692313495</v>
+        <v>0.01643965043058558</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.001164346116918197</v>
+        <v>0.01049293032334308</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.0005214071970503739</v>
+        <v>0.00602520280029971</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0006416522732343603</v>
+        <v>0.009289696151148759</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0009707830937829803</v>
+        <v>0.009474803306213503</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.0008909238697416302</v>
+        <v>0.007043368831399931</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0006340415048097947</v>
+        <v>0.009422683814422224</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.001028475069741838</v>
+        <v>0.007408772913558966</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-9.378042631954791e-05</v>
+        <v>0.01096262656547317</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.0003855769054383598</v>
+        <v>0.007308026535068873</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.001878306253184793</v>
+        <v>0.006466892135595849</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0002222018347235247</v>
+        <v>0.005312239552580765</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.003044796040021489</v>
+        <v>0.003692840801150749</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0006748764387149202</v>
+        <v>0.01095789615266352</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.003651302774262568</v>
+        <v>0.01917877161364474</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0001104641157078147</v>
+        <v>0.008916360448141834</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0009951781916820535</v>
+        <v>0.007006508201256222</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.001182222294395471</v>
+        <v>0.009469117781551139</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-3.711463090186237e-05</v>
+        <v>0.0100375204097324</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.001148902192516759</v>
+        <v>0.01197375202826173</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0003895563124178129</v>
+        <v>0.01019888537221805</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.001528380541641526</v>
+        <v>0.007830347867932557</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.002546301878147643</v>
+        <v>0.01349732395629439</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0004222591394827816</v>
+        <v>0.01085111745221335</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0004440673892939453</v>
+        <v>0.01359711835740922</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.002158478530106014</v>
+        <v>0.01372558238363253</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.0009551306440894613</v>
+        <v>0.008572440120534311</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0008115699629398846</v>
+        <v>0.01399802948090976</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.00261284358334302</v>
+        <v>0.01238306987034527</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.002201106765270854</v>
+        <v>0.00817058113810116</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.00230782302329406</v>
+        <v>0.0132956937226657</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.00389047762708266</v>
+        <v>0.01751595564574203</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.00238548087496593</v>
+        <v>0.01570178113043906</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.001085290854277852</v>
+        <v>0.01400117867042554</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.001567747124430131</v>
+        <v>0.01573944931233056</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.00483306333978581</v>
+        <v>0.0184767618260759</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.0006385070004652772</v>
+        <v>0.01371161768834016</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0004239686340641569</v>
+        <v>0.01048485877441653</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.00499864663432607</v>
+        <v>0.01812056796076546</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.002889422767024646</v>
+        <v>0.01418002560149337</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.002279338574134698</v>
+        <v>0.01374155921294692</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.00200632063198325</v>
+        <v>0.01376952954811789</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.001591590697736159</v>
+        <v>0.009824545901985476</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.00189352809557524</v>
+        <v>0.01457796231304657</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.003572291352196216</v>
+        <v>0.003645592361707153</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.0008549613922872104</v>
+        <v>0.009482036165062673</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.0009860168413359659</v>
+        <v>0.01475285678447773</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.006014560501271962</v>
+        <v>0.02474050071767938</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.001726421297029682</v>
+        <v>0.01383871193695225</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.002592644947674092</v>
+        <v>0.0164525171051112</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.0005314289071407847</v>
+        <v>0.01502410728699205</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.00185437729436031</v>
+        <v>0.01411508343138485</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.001185764299236213</v>
+        <v>0.01276493709596207</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.005880600518570872</v>
+        <v>0.01968565469736341</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.000249068021833723</v>
+        <v>0.007297338610633229</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.0003854961391813077</v>
+        <v>0.009743589629498261</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.0001836109248405493</v>
+        <v>0.006454001322427259</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.0007454326808411801</v>
+        <v>0.006869414490989219</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.0005116786032682093</v>
+        <v>0.006969622306415768</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.000636567733954585</v>
+        <v>0.01550555501231311</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.005452334889538095</v>
+        <v>0.01969775759539185</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.001341927824401821</v>
+        <v>0.01436119594127396</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.000956135448931027</v>
+        <v>0.01171798619523116</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.0003556779604752576</v>
+        <v>-0.0005488307422448447</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.001346286406577824</v>
+        <v>0.004025817868264185</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.000580160408086993</v>
+        <v>0.003941566087751865</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.0004426491913866209</v>
+        <v>0.00783723015979489</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.001499027544821314</v>
+        <v>0.01141988197471858</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.0002365165511369731</v>
+        <v>0.005605093595791943</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.000351946938051863</v>
+        <v>0.01382553250289385</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.001904913872183035</v>
+        <v>0.008072450124404853</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.001981882639075263</v>
+        <v>0.01559580818580782</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.0005076851711018508</v>
+        <v>0.008288178561227835</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.001390098563416698</v>
+        <v>0.005536998184647019</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.0009622673120723991</v>
+        <v>0.01268105535048165</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.002306886828446707</v>
+        <v>0.01232596835916969</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.001090781608439524</v>
+        <v>0.01266883780744776</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.002514998668524292</v>
+        <v>0.01676919631330479</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0005514387478629597</v>
+        <v>0.0141518560913655</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.005090229535753154</v>
+        <v>0.01767308048526187</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.002359788580903227</v>
+        <v>0.01750630370930171</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.002260185403841974</v>
+        <v>0.01552097318817779</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.007121779661616726</v>
+        <v>0.02297517080009446</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.005941388814916985</v>
+        <v>0.02075989825520606</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0034377031721011</v>
+        <v>0.01327560830822868</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.0003264540856535816</v>
+        <v>0.01264512738319858</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.004462017811360752</v>
+        <v>0.02297443606021016</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.0009691595702120173</v>
+        <v>0.01215727187602794</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.000740156180571114</v>
+        <v>0.01121441061513399</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.002241669743869757</v>
+        <v>0.01194010231623971</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.002902104304447083</v>
+        <v>0.01504728159443413</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.004816495641870116</v>
+        <v>0.02172045234483024</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.002761909693531772</v>
+        <v>0.01792350911656351</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.002581572633727518</v>
+        <v>0.01911177219507067</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.002150946224424072</v>
+        <v>0.01541033719303377</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.002281998255005893</v>
+        <v>0.01459436313734689</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.003158113306390499</v>
+        <v>0.01518096857131277</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.002559169670378343</v>
+        <v>0.01306022444084223</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.002726434242662663</v>
+        <v>0.01260156586754686</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.00554114482471837</v>
+        <v>0.02544608402053849</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0009039910558080946</v>
+        <v>0.0149756902367784</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.001518880253841426</v>
+        <v>0.01355894623098382</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.004097184454109173</v>
+        <v>0.01994891827126538</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.0002338364252149228</v>
+        <v>0.009646438741814664</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.003519812396227185</v>
+        <v>0.01739952804505072</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.001642549207689024</v>
+        <v>0.01178865978697717</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.003563476284882884</v>
+        <v>0.02016440849934561</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.002151822943946362</v>
+        <v>0.01363684590528747</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.001631628241018436</v>
+        <v>0.01428183673068948</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.001610839541498434</v>
+        <v>0.0095695558849106</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.004040026082389137</v>
+        <v>0.02024158737366488</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.004083154208913797</v>
+        <v>0.01725399029533899</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.005632450501474739</v>
+        <v>0.01699571770586454</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.002629854774774375</v>
+        <v>0.01185991315860324</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.005296985199404426</v>
+        <v>0.02004973843031545</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.003986726857921319</v>
+        <v>0.02112000427872042</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.007978250131532694</v>
+        <v>0.02596639967805886</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.005419016019585029</v>
+        <v>0.02248124722726903</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.004563288219291951</v>
+        <v>0.02283046626112911</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.004144502520833076</v>
+        <v>0.01963656968522352</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.003484833218524737</v>
+        <v>0.01902357993921207</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.003501268216364179</v>
+        <v>0.01592499688456477</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.003486661904745084</v>
+        <v>0.01895091788260847</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.00258740821924034</v>
+        <v>0.01626527103067008</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.005068942766562421</v>
+        <v>0.02356646626975528</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.004960913691048702</v>
+        <v>0.02351442176351214</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.004602133174293649</v>
+        <v>0.01957215272964561</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.003727663302474583</v>
+        <v>0.01505766314862549</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.002583074038507971</v>
+        <v>0.01493579509877666</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.001212782926923346</v>
+        <v>0.005665711692311191</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.001266989717611863</v>
+        <v>0.006361585731296579</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.001980010171576231</v>
+        <v>0.009369398915899586</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.00356178275402486</v>
+        <v>0.01757050421779191</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.0007906855385368008</v>
+        <v>0.006993809028939825</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.0001548184924514185</v>
+        <v>0.00307596679861289</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.0004932449068173226</v>
+        <v>-0.0001929807550896935</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.0006061867852341604</v>
+        <v>0.005755818338918369</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.000520884415703141</v>
+        <v>0.005054106309675521</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.001142168943614539</v>
+        <v>0.01304944333506485</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.0007213488796742926</v>
+        <v>0.006354247097608986</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.001188962811772641</v>
+        <v>0.01259763078099791</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.001577341838160466</v>
+        <v>0.01230316173685237</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.00095392525144742</v>
+        <v>0.004358411786063496</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.001024179938727001</v>
+        <v>0.01011827374025257</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.001203472838074619</v>
+        <v>0.008707030434308968</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.001054082408671926</v>
+        <v>0.01136077577810242</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.0006359419772456359</v>
+        <v>0.01322149790792878</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-0.0001551541520119971</v>
+        <v>0.005349529884799742</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.0007450301245281185</v>
+        <v>0.01135752637718245</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-8.039174594465434e-05</v>
+        <v>0.01081621554018496</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-0.0002232183993196163</v>
+        <v>0.004397334752846239</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-0.0004172198863968706</v>
+        <v>0.00931225049294061</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.000217465897484357</v>
+        <v>0.00886129438559977</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.0009062925411058887</v>
+        <v>0.009456133031676696</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.002744570097988174</v>
+        <v>0.01603787315337385</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.004251542056160252</v>
+        <v>0.01976163475096982</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.003236152097750195</v>
+        <v>0.01750659422970785</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.00293712385178828</v>
+        <v>0.01432845023338442</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.004428106833032795</v>
+        <v>0.0191214609492901</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.001359977741437072</v>
+        <v>0.01501251118707015</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.0004234235898232941</v>
+        <v>0.01128852052886893</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.002405019913835227</v>
+        <v>0.01467596524401469</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.002769106873246313</v>
+        <v>0.01807280791771131</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-1.690420858436398e-05</v>
+        <v>0.0116707353381454</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.0008636660365697919</v>
+        <v>0.01532412423369398</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.0009035576101441919</v>
+        <v>0.009799617008611216</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.0005479550189445908</v>
+        <v>0.01305375976573186</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.001142190531394515</v>
+        <v>0.01302543678988358</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.002290224330033603</v>
+        <v>0.01541434432907881</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.002403559837453275</v>
+        <v>0.01498558011129634</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.003079789441040604</v>
+        <v>0.01595877230547522</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.0007113244626840881</v>
+        <v>0.009420008989991267</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.0003900334807927044</v>
+        <v>0.006503543619436046</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.00178215236639742</v>
+        <v>0.009053874840185133</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.00175731017652694</v>
+        <v>0.01048139670460259</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.0005748306808526322</v>
+        <v>0.009728195559933617</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-0.0003395246543485262</v>
+        <v>0.007356044960339547</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.0003836757393109871</v>
+        <v>0.01208161600124939</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.000240108468014957</v>
+        <v>0.00852490154381485</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-0.0007172945615906971</v>
+        <v>0.008992040468117119</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2.325371200676224e-05</v>
+        <v>0.01017355157746037</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.002604639173485222</v>
+        <v>0.01408658543709954</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-0.0008766170722328164</v>
+        <v>0.005829896351153738</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-0.002311574884943416</v>
+        <v>0.007278357770729273</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.0003290171085950548</v>
+        <v>0.007163652619960523</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.002236781060713176</v>
+        <v>0.01432311841893802</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.0004815823726451062</v>
+        <v>0.01035722546384909</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.00304857801358654</v>
+        <v>0.003752286499333132</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.006269836652851049</v>
+        <v>0.00225611411364496</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.006771226325084381</v>
+        <v>-0.001739328997676724</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.004653605037998221</v>
+        <v>0.001358769112954152</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.006825825419293573</v>
+        <v>-0.0002230046097690451</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-0.00522222841288811</v>
+        <v>0.0006499015881058386</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-0.00986551003881724</v>
+        <v>-0.01073284101735237</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.004793737556293344</v>
+        <v>-0.002845777597491914</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-0.004667962159063913</v>
+        <v>-0.006991925374950108</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-0.009966037344272221</v>
+        <v>-0.01044623244585014</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.005208154102573487</v>
+        <v>0.0003325768236786361</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.007812286361734285</v>
+        <v>-0.003910516903690284</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.01201400375415693</v>
+        <v>-0.01365182006068616</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-0.003965627388567546</v>
+        <v>-0.00229407049346006</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.01239812906698001</v>
+        <v>-0.01373902778413112</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.00911804369798469</v>
+        <v>-0.00537198066159531</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.007552395729165335</v>
+        <v>-0.01399119471527214</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.004302647928861466</v>
+        <v>-0.001772385294949526</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.004063240121911704</v>
+        <v>-0.005059967418984806</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.001188993205851437</v>
+        <v>0.003647586716784331</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.0005401705577907321</v>
+        <v>0.009560540123507972</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.003743712892766613</v>
+        <v>0.009172081745424701</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.002866817138234721</v>
+        <v>0.006607827958190439</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.002621524500754536</v>
+        <v>0.002555859264612118</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-0.004360059182072426</v>
+        <v>0.002749569685437548</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-0.002846645594544138</v>
+        <v>0.003414225209843027</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-0.003559042772019422</v>
+        <v>0.001080112380947509</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-0.004273030416412736</v>
+        <v>-0.001216878507478004</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-0.006271569590041521</v>
+        <v>0.0006334303480531061</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.003482679634901182</v>
+        <v>0.004286167972261085</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.003876821046050674</v>
+        <v>-0.002910823948985014</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.003578821712070246</v>
+        <v>-0.002491968304650503</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.004106912730252674</v>
+        <v>0.0001827645494467493</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.001128191225216981</v>
+        <v>0.002273307347028977</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.001792039207685158</v>
+        <v>0.004731292497778427</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.0003600707714625859</v>
+        <v>0.00459772347821826</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-0.001469747227058528</v>
+        <v>0.00544028261997431</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.002242358134536005</v>
+        <v>0.01389084384932606</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.001356150379773186</v>
+        <v>0.0163274989566315</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.0008407567225271867</v>
+        <v>0.005630842777473903</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-0.0005378600839003157</v>
+        <v>0.01086285944415014</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.002693841839544751</v>
+        <v>0.01415800777650482</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.0003252549348480315</v>
+        <v>0.01450269171116039</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.0001869918148992308</v>
+        <v>0.006916243548875285</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-0.0001874005528245376</v>
+        <v>0.009754855828939184</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.001730783007082083</v>
+        <v>0.008008829318155206</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.0009430566375401156</v>
+        <v>0.01360099613561071</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.0005130746044155407</v>
+        <v>0.008138275791420697</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.002255396806826793</v>
+        <v>0.00352607570051431</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.001894993633215035</v>
+        <v>0.008581320659548137</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>8.34304147636637e-05</v>
+        <v>0.008912008206248521</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.003334318813780829</v>
+        <v>0.01767994030324605</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.0008324462333678726</v>
+        <v>0.01101531431486474</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-0.0003280240237727966</v>
+        <v>0.007709428275908195</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.003410715353910542</v>
+        <v>0.01591852723306813</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.001232410279315908</v>
+        <v>0.01406381641023151</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.00252104385636598</v>
+        <v>0.02073576021990389</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.003460617871598066</v>
+        <v>0.02036183442218257</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.002935395699087763</v>
+        <v>0.01815622600665034</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.002634208056719277</v>
+        <v>0.0152900736483829</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.005259890255348185</v>
+        <v>0.02012255130509469</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.001584244234320671</v>
+        <v>0.01301385788327402</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.00417295713412201</v>
+        <v>0.01724436271401633</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.00185727171361067</v>
+        <v>0.008122823840970234</v>
       </c>
     </row>
   </sheetData>
